--- a/census_data.xlsx
+++ b/census_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +441,47 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Nearest City</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zipcode</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Poverty Count</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Household Income</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Population</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Median Age</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Income</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Poverty Count</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Zipcode</t>
+          <t>Poverty Rate (%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>National Poverty Rate</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
         </is>
       </c>
     </row>
@@ -479,25 +494,36 @@
           <t>Fort Novosel</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>67574</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5912</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Donthan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36301</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>24.1</v>
+        <v>37699</v>
       </c>
       <c r="F2" t="n">
-        <v>22206</v>
+        <v>8151</v>
       </c>
       <c r="G2" t="n">
-        <v>691</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>36362</t>
-        </is>
+        <v>43054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21.62126316347914</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.223</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-85.3905</v>
       </c>
     </row>
     <row r="3">
@@ -509,25 +535,36 @@
           <t>Fort Huachuca</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>88135</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5248</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sierra Vista</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>85635</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>22.7</v>
+        <v>35167</v>
       </c>
       <c r="F3" t="n">
-        <v>25388</v>
+        <v>4736</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>85613</t>
-        </is>
+        <v>57689</v>
+      </c>
+      <c r="H3" t="n">
+        <v>13.46717092728979</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>31.5455</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-110.2773</v>
       </c>
     </row>
     <row r="4">
@@ -539,25 +576,36 @@
           <t>Fort Irwin</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>58000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9100</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Barstow</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>92311</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>22.8</v>
+        <v>34204</v>
       </c>
       <c r="F4" t="n">
-        <v>23651</v>
+        <v>9158</v>
       </c>
       <c r="G4" t="n">
-        <v>973</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>92310</t>
-        </is>
+        <v>49919</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26.77464624020583</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34.8958</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-117.0173</v>
       </c>
     </row>
     <row r="5">
@@ -569,23 +617,36 @@
           <t>Fort Carson</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>5667</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>80903</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>21.6</v>
+        <v>16844</v>
       </c>
       <c r="F5" t="n">
-        <v>27354</v>
+        <v>2632</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>80913</t>
-        </is>
+        <v>52963</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.6257421040133</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38.8339</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-104.8214</v>
       </c>
     </row>
     <row r="6">
@@ -597,25 +658,36 @@
           <t>Fort Eisenhower</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>51333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7933</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Agusta</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30904</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>27125</v>
       </c>
       <c r="F6" t="n">
-        <v>27368</v>
+        <v>7162</v>
       </c>
       <c r="G6" t="n">
-        <v>452</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>30905</t>
-        </is>
+        <v>39026</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26.4036866359447</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>33.4735</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-82.01049999999999</v>
       </c>
     </row>
     <row r="7">
@@ -627,25 +699,36 @@
           <t>Fort Moore</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>60121</v>
-      </c>
-      <c r="D7" t="n">
-        <v>16973</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Columbus</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>22.6</v>
+        <v>5728</v>
       </c>
       <c r="F7" t="n">
-        <v>22642</v>
+        <v>1496</v>
       </c>
       <c r="G7" t="n">
-        <v>1664</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>31905</t>
-        </is>
+        <v>34578</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26.11731843575419</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.460976</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-84.987709</v>
       </c>
     </row>
     <row r="8">
@@ -657,25 +740,36 @@
           <t>Fort Stewart</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hinesville</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31313</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>41967</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7361</v>
+      </c>
+      <c r="G8" t="n">
         <v>50526</v>
       </c>
-      <c r="D8" t="n">
-        <v>41967</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>23524</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7361</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>31313</t>
-        </is>
+      <c r="H8" t="n">
+        <v>17.53997188266972</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31.8469</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-81.5959</v>
       </c>
     </row>
     <row r="9">
@@ -687,25 +781,36 @@
           <t>Fort Leavenworth</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>99000</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6698</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Leavenworth</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66048</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>24.8</v>
+        <v>36185</v>
       </c>
       <c r="F9" t="n">
-        <v>27877</v>
+        <v>3962</v>
       </c>
       <c r="G9" t="n">
-        <v>736</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>66027</t>
-        </is>
+        <v>63541</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.94928837916264</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>39.3111</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-94.9225</v>
       </c>
     </row>
     <row r="10">
@@ -717,25 +822,36 @@
           <t>Fort Riley</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>44219</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16019</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Manhattan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66502</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>22.3</v>
+        <v>44789</v>
       </c>
       <c r="F10" t="n">
-        <v>19177</v>
+        <v>12415</v>
       </c>
       <c r="G10" t="n">
-        <v>2851</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>66442</t>
-        </is>
+        <v>48238</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27.71885954140525</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>39.1836</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-96.57170000000001</v>
       </c>
     </row>
     <row r="11">
@@ -747,25 +863,36 @@
           <t>Fort Campbell</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>51940</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21028</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Clarksville</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37040</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>21.8</v>
+        <v>58490</v>
       </c>
       <c r="F11" t="n">
-        <v>20864</v>
+        <v>9679</v>
       </c>
       <c r="G11" t="n">
-        <v>1233</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>42223</t>
-        </is>
+        <v>58229</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.54812788510857</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>36.5298</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-87.3595</v>
       </c>
     </row>
     <row r="12">
@@ -777,25 +904,36 @@
           <t>Fort Knox</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>70441</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8916</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Elizabethtown</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42701</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>25.6</v>
+        <v>52279</v>
       </c>
       <c r="F12" t="n">
-        <v>29501</v>
+        <v>4860</v>
       </c>
       <c r="G12" t="n">
-        <v>353</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>40121</t>
-        </is>
+        <v>62713</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.296275751257674</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>37.697</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-85.8591</v>
       </c>
     </row>
     <row r="13">
@@ -807,25 +945,36 @@
           <t>Fort Johnson</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>50280</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11363</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Leesville</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>71446</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>22.3</v>
+        <v>21469</v>
       </c>
       <c r="F13" t="n">
-        <v>22561</v>
+        <v>4014</v>
       </c>
       <c r="G13" t="n">
-        <v>1002</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>71459</t>
-        </is>
+        <v>53012</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18.6967255112022</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>31.1432</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-93.2615</v>
       </c>
     </row>
     <row r="14">
@@ -837,25 +986,36 @@
           <t>Fort Detrick</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>92267</v>
-      </c>
-      <c r="D14" t="n">
-        <v>44783</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Frederick</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21701</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>37.7</v>
+        <v>40203</v>
       </c>
       <c r="F14" t="n">
-        <v>43382</v>
+        <v>3200</v>
       </c>
       <c r="G14" t="n">
-        <v>4092</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>21702</t>
-        </is>
+        <v>90531</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.959605004601647</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39.4143</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-77.4105</v>
       </c>
     </row>
     <row r="15">
@@ -867,25 +1027,36 @@
           <t>Fort George G. Meade</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>92603</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11253</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Odenton</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>25.1</v>
+        <v>35242</v>
       </c>
       <c r="F15" t="n">
-        <v>32658</v>
+        <v>1747</v>
       </c>
       <c r="G15" t="n">
-        <v>576</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20755</t>
-        </is>
+        <v>103099</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.957153396515522</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>39.084</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-76.7003</v>
       </c>
     </row>
     <row r="16">
@@ -897,25 +1068,36 @@
           <t>Fort Leonard Wood</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>61913</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15629</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Waynesville</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>65583</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>20.8</v>
+        <v>13370</v>
       </c>
       <c r="F16" t="n">
-        <v>21569</v>
+        <v>2321</v>
       </c>
       <c r="G16" t="n">
-        <v>375</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>65473</t>
-        </is>
+        <v>66613</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17.35976065818998</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37.8253</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-92.2007</v>
       </c>
     </row>
     <row r="17">
@@ -927,23 +1109,36 @@
           <t>Fort Drum</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>3765</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Watertown</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13601</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>21.6</v>
+        <v>38695</v>
       </c>
       <c r="F17" t="n">
-        <v>24026</v>
+        <v>6376</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>13602</t>
-        </is>
+        <v>53813</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16.47758108282724</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>44.0086</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-75.7273</v>
       </c>
     </row>
     <row r="18">
@@ -955,25 +1150,36 @@
           <t>Fort Hamilton</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11209</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>72938</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7665</v>
+      </c>
+      <c r="G18" t="n">
         <v>84145</v>
       </c>
-      <c r="D18" t="n">
-        <v>72938</v>
-      </c>
-      <c r="E18" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>48419</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7665</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>11209</t>
-        </is>
+      <c r="H18" t="n">
+        <v>10.50892538868628</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40.7128</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-74.006</v>
       </c>
     </row>
     <row r="19">
@@ -985,23 +1191,36 @@
           <t>Fort Liberty</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>8737</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fayetteville</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>28301</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>22.1</v>
+        <v>16365</v>
       </c>
       <c r="F19" t="n">
-        <v>28265</v>
+        <v>4915</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>28310</t>
-        </is>
+        <v>30660</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30.03360831041858</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>35.0527</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-78.8784</v>
       </c>
     </row>
     <row r="20">
@@ -1013,25 +1232,36 @@
           <t>Fort Still</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>49564</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11253</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Lawton</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>73501</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>20.2</v>
+        <v>20508</v>
       </c>
       <c r="F20" t="n">
-        <v>17546</v>
+        <v>4176</v>
       </c>
       <c r="G20" t="n">
-        <v>513</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>73503</t>
-        </is>
+        <v>43987</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20.36278525453482</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>34.6087</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-98.3903</v>
       </c>
     </row>
     <row r="21">
@@ -1043,23 +1273,36 @@
           <t>Fort Jackson</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>11396</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Columbia</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>29201</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>20.1</v>
+        <v>21176</v>
       </c>
       <c r="F21" t="n">
-        <v>18390</v>
+        <v>8927</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>29207</t>
-        </is>
+        <v>32306</v>
+      </c>
+      <c r="H21" t="n">
+        <v>42.15621458254628</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>34.0007</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-81.0348</v>
       </c>
     </row>
     <row r="22">
@@ -1071,23 +1314,36 @@
           <t>Fort Bliss</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>4526</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>El Paso</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>79901</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>22.7</v>
+        <v>8518</v>
       </c>
       <c r="F22" t="n">
-        <v>32300</v>
+        <v>4474</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>79916</t>
-        </is>
+        <v>13510</v>
+      </c>
+      <c r="H22" t="n">
+        <v>52.52406668231979</v>
+      </c>
+      <c r="I22" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>31.7619</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-106.485</v>
       </c>
     </row>
     <row r="23">
@@ -1099,25 +1355,36 @@
           <t>Fort Cavazos</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>48589</v>
-      </c>
-      <c r="D23" t="n">
-        <v>24872</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Killeen</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>76541</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>21.7</v>
+        <v>18521</v>
       </c>
       <c r="F23" t="n">
-        <v>20913</v>
+        <v>4680</v>
       </c>
       <c r="G23" t="n">
-        <v>1892</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>76544</t>
-        </is>
+        <v>31804</v>
+      </c>
+      <c r="H23" t="n">
+        <v>25.26861400572323</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>31.1171</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-97.7278</v>
       </c>
     </row>
     <row r="24">
@@ -1129,25 +1396,36 @@
           <t>Fort Belvoir</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>88096</v>
-      </c>
-      <c r="D24" t="n">
-        <v>9467</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alexandria</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22301</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>14410</v>
       </c>
       <c r="F24" t="n">
-        <v>31331</v>
+        <v>490</v>
       </c>
       <c r="G24" t="n">
-        <v>823</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>22060</t>
-        </is>
+        <v>172594</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.400416377515615</v>
+      </c>
+      <c r="I24" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>38.8048</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-77.04689999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1159,25 +1437,36 @@
           <t>Fort Gregg-Adams</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>78125</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6271</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Petersburg</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23803</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>22.8</v>
+        <v>41300</v>
       </c>
       <c r="F25" t="n">
-        <v>22606</v>
+        <v>7556</v>
       </c>
       <c r="G25" t="n">
-        <v>213</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>23801</t>
-        </is>
+        <v>49302</v>
+      </c>
+      <c r="H25" t="n">
+        <v>18.2953995157385</v>
+      </c>
+      <c r="I25" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>37.2279</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-77.4019</v>
       </c>
     </row>
     <row r="26">
@@ -1189,25 +1478,36 @@
           <t>Fort Meyer</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>139688</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1606</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Arlington</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22201</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>22.4</v>
+        <v>39240</v>
       </c>
       <c r="F26" t="n">
-        <v>26527</v>
+        <v>2499</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>22211</t>
-        </is>
+        <v>133471</v>
+      </c>
+      <c r="H26" t="n">
+        <v>6.368501529051988</v>
+      </c>
+      <c r="I26" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>38.8816</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-77.09099999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1219,25 +1519,36 @@
           <t>Joint Base Lewis-McChord</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>48990</v>
-      </c>
-      <c r="D27" t="n">
-        <v>19771</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tacoma</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>98402</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>6805</v>
       </c>
       <c r="F27" t="n">
-        <v>19824</v>
+        <v>1324</v>
       </c>
       <c r="G27" t="n">
-        <v>2321</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>98433</t>
-        </is>
+        <v>55250</v>
+      </c>
+      <c r="H27" t="n">
+        <v>19.45628214548126</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>47.2529</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-122.4443</v>
       </c>
     </row>
     <row r="28">
@@ -1249,25 +1560,36 @@
           <t>Fort McCoy</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sparta</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>54656</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>18115</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1682</v>
+      </c>
+      <c r="G28" t="n">
         <v>63577</v>
       </c>
-      <c r="D28" t="n">
-        <v>18115</v>
-      </c>
-      <c r="E28" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="F28" t="n">
-        <v>31003</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1682</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>54656</t>
-        </is>
+      <c r="H28" t="n">
+        <v>9.285122826386973</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43.9444</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-90.81229999999999</v>
       </c>
     </row>
   </sheetData>

--- a/census_data.xlsx
+++ b/census_data.xlsx
@@ -517,7 +517,7 @@
         <v>21.62126316347914</v>
       </c>
       <c r="I2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J2" t="n">
         <v>31.223</v>
@@ -558,7 +558,7 @@
         <v>13.46717092728979</v>
       </c>
       <c r="I3" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>31.5455</v>
@@ -599,7 +599,7 @@
         <v>26.77464624020583</v>
       </c>
       <c r="I4" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J4" t="n">
         <v>34.8958</v>
@@ -640,7 +640,7 @@
         <v>15.6257421040133</v>
       </c>
       <c r="I5" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J5" t="n">
         <v>38.8339</v>
@@ -681,7 +681,7 @@
         <v>26.4036866359447</v>
       </c>
       <c r="I6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J6" t="n">
         <v>33.4735</v>
@@ -722,7 +722,7 @@
         <v>26.11731843575419</v>
       </c>
       <c r="I7" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J7" t="n">
         <v>32.460976</v>
@@ -763,7 +763,7 @@
         <v>17.53997188266972</v>
       </c>
       <c r="I8" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J8" t="n">
         <v>31.8469</v>
@@ -804,7 +804,7 @@
         <v>10.94928837916264</v>
       </c>
       <c r="I9" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J9" t="n">
         <v>39.3111</v>
@@ -845,7 +845,7 @@
         <v>27.71885954140525</v>
       </c>
       <c r="I10" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J10" t="n">
         <v>39.1836</v>
@@ -886,7 +886,7 @@
         <v>16.54812788510857</v>
       </c>
       <c r="I11" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J11" t="n">
         <v>36.5298</v>
@@ -927,7 +927,7 @@
         <v>9.296275751257674</v>
       </c>
       <c r="I12" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J12" t="n">
         <v>37.697</v>
@@ -968,7 +968,7 @@
         <v>18.6967255112022</v>
       </c>
       <c r="I13" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J13" t="n">
         <v>31.1432</v>
@@ -1009,7 +1009,7 @@
         <v>7.959605004601647</v>
       </c>
       <c r="I14" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J14" t="n">
         <v>39.4143</v>
@@ -1050,7 +1050,7 @@
         <v>4.957153396515522</v>
       </c>
       <c r="I15" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J15" t="n">
         <v>39.084</v>
@@ -1091,7 +1091,7 @@
         <v>17.35976065818998</v>
       </c>
       <c r="I16" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J16" t="n">
         <v>37.8253</v>
@@ -1132,7 +1132,7 @@
         <v>16.47758108282724</v>
       </c>
       <c r="I17" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J17" t="n">
         <v>44.0086</v>
@@ -1173,7 +1173,7 @@
         <v>10.50892538868628</v>
       </c>
       <c r="I18" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J18" t="n">
         <v>40.7128</v>
@@ -1214,7 +1214,7 @@
         <v>30.03360831041858</v>
       </c>
       <c r="I19" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J19" t="n">
         <v>35.0527</v>
@@ -1255,7 +1255,7 @@
         <v>20.36278525453482</v>
       </c>
       <c r="I20" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J20" t="n">
         <v>34.6087</v>
@@ -1296,7 +1296,7 @@
         <v>42.15621458254628</v>
       </c>
       <c r="I21" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J21" t="n">
         <v>34.0007</v>
@@ -1337,7 +1337,7 @@
         <v>52.52406668231979</v>
       </c>
       <c r="I22" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J22" t="n">
         <v>31.7619</v>
@@ -1378,7 +1378,7 @@
         <v>25.26861400572323</v>
       </c>
       <c r="I23" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J23" t="n">
         <v>31.1171</v>
@@ -1419,7 +1419,7 @@
         <v>3.400416377515615</v>
       </c>
       <c r="I24" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J24" t="n">
         <v>38.8048</v>
@@ -1460,7 +1460,7 @@
         <v>18.2953995157385</v>
       </c>
       <c r="I25" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J25" t="n">
         <v>37.2279</v>
@@ -1501,7 +1501,7 @@
         <v>6.368501529051988</v>
       </c>
       <c r="I26" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J26" t="n">
         <v>38.8816</v>
@@ -1542,7 +1542,7 @@
         <v>19.45628214548126</v>
       </c>
       <c r="I27" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J27" t="n">
         <v>47.2529</v>
@@ -1583,7 +1583,7 @@
         <v>9.285122826386973</v>
       </c>
       <c r="I28" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="J28" t="n">
         <v>43.9444</v>
